--- a/biology/Histoire de la zoologie et de la botanique/Jean-Edmond_Briaune/Jean-Edmond_Briaune.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Edmond_Briaune/Jean-Edmond_Briaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Edmond Briaune, né le 21 février 1798 à Châteauroux (Indre) et mort le 26 février 1885 à Jeu-Maloches (Indre), est un agronome et économiste français.
 Il est considéré comme un des plus fertiles représentants de la pensée agrarienne française.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de magistrat, Jean-Edmond Briaune fait des études d'avocat, puis devient en 1833 le premier professeur d'économie rurale de l'école d'agriculture de Grignon. 
 Démissionnant en 1838, il revient dans l'Indre et y fait valoir ses propriétés foncières à Jeu-Maloches. Il est aussi adjoint au maire, conseiller général (de 1839 à 1848) et juge de paix du canton d'Écueillé. 
@@ -545,7 +559,9 @@
           <t>L'œuvre de Briaune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fois intellectuel et praticien, cet adepte de la pensée pragmatique expérimente lui-même ses théories en exploitant ses terres.
 Auteur d'une cinquantaine d'articles, notamment dans le Journal d'agriculture pratique, ainsi que de quelques plaquettes, il a surtout publié deux livres qui synthétisent sa réflexion économique et agronomique : Des Crises commerciales, de leurs causes et de leurs remèdes (1840) et Du prix des grains, du libre échange et des réserves (1857).
